--- a/all/Followup.xlsx
+++ b/all/Followup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Followup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE65BF1-3DDD-46DE-A405-E34154FF6AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E16D40-747A-4FE2-9143-31F93AE7EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Br.Ashiq</t>
   </si>
@@ -89,6 +89,20 @@
       </rPr>
       <t xml:space="preserve"> name from Cform as he is no more attending match since a year and he moved to canada</t>
     </r>
+  </si>
+  <si>
+    <t>Br.Murtuza</t>
+  </si>
+  <si>
+    <t>DS5 Student Detail</t>
+  </si>
+  <si>
+    <t>Collect DS5 Cform data</t>
+  </si>
+  <si>
+    <t>AUH-1: Follow for New Brs | No detail with the teacher.
+Br Wasi Mohammed Jafri
+Br.Mohammad Abbas Rizvi</t>
   </si>
 </sst>
 </file>
@@ -460,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F487ED5-35D1-4D74-BE35-EBF2820C250E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,9 +531,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{51A247E2-EF64-4270-9440-922DE253F4F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C7" xr:uid="{51A247E2-EF64-4270-9440-922DE253F4F1}">
       <formula1>$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/all/Followup.xlsx
+++ b/all/Followup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naiyar\Islamic\Secondary\Commitee\Secondary\Followup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E16D40-747A-4FE2-9143-31F93AE7EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBF003-2916-49AD-8C4C-6080EAC4519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Br.Ashiq</t>
   </si>
   <si>
-    <t>Br.Naiyar</t>
-  </si>
-  <si>
     <t>task#</t>
   </si>
   <si>
@@ -40,12 +37,6 @@
   </si>
   <si>
     <t>Responsible</t>
-  </si>
-  <si>
-    <t>AUH-1: Br.Hussain Mehdi (19) and Br.Mohd Abbas Rizvi (25) - To be check</t>
-  </si>
-  <si>
-    <t>AUH-1: Tauheed1 Paper Correction - Given to Sadiq Sir on dated 3-Aug-2024</t>
   </si>
   <si>
     <r>
@@ -100,9 +91,13 @@
     <t>Collect DS5 Cform data</t>
   </si>
   <si>
+    <t>Secondary Committee Portal -  Discuss with other Committee</t>
+  </si>
+  <si>
     <t>AUH-1: Follow for New Brs | No detail with the teacher.
+Br.Hussain Mehdi (19)
 Br Wasi Mohammed Jafri
-Br.Mohammad Abbas Rizvi</t>
+Br.Mohammad Abbas Rizvi (25)</t>
   </si>
 </sst>
 </file>
@@ -474,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F487ED5-35D1-4D74-BE35-EBF2820C250E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,27 +484,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -517,10 +512,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -528,10 +523,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -539,35 +534,24 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C7" xr:uid="{51A247E2-EF64-4270-9440-922DE253F4F1}">
-      <formula1>$B$2:$B$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2" xr:uid="{51A247E2-EF64-4270-9440-922DE253F4F1}">
+      <formula1>$B$2:$B$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
